--- a/Final/Default.xlsx
+++ b/Final/Default.xlsx
@@ -15,15 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Order 107 completedOutput Text_out</t>
+  </si>
+  <si>
     <t>flightsDataGridOutput Text_out1</t>
   </si>
   <si>
     <t>flightsDataGridOutput Text_out</t>
+  </si>
+  <si>
+    <t>Order 107 completed</t>
   </si>
   <si>
     <t>Flight</t>
@@ -174,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,13 +188,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -487,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -495,28 +531,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.2734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.2734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.41796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.2734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.2734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.41796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.28125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c t="s">
         <v>0</v>
       </c>
       <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
         <v>2</v>
+      </c>
+      <c t="s">
+        <v>5</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
-      <c t="s">
-        <v>3</v>
+    </row>
+    <row>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/Final/Default.xlsx
+++ b/Final/Default.xlsx
@@ -15,27 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Order 107 completedOutput Text_out</t>
+    <t>F</t>
   </si>
   <si>
-    <t>flightsDataGridOutput Text_out1</t>
+    <t>C</t>
   </si>
   <si>
-    <t>flightsDataGridOutput Text_out</t>
-  </si>
-  <si>
-    <t>Order 107 completed</t>
-  </si>
-  <si>
-    <t>Flight</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -180,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -188,43 +185,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -523,50 +490,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.2734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.2734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.41796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.28125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="6" width="9.41796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c t="s">
         <v>0</v>
       </c>
       <c t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c t="s">
         <v>5</v>
       </c>
       <c t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +537,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
